--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6818126666666666</v>
+        <v>0.2748583333333333</v>
       </c>
       <c r="H2">
-        <v>2.045438</v>
+        <v>0.8245749999999999</v>
       </c>
       <c r="I2">
-        <v>0.5993607991797695</v>
+        <v>0.4713451636210649</v>
       </c>
       <c r="J2">
-        <v>0.5993607991797694</v>
+        <v>0.471345163621065</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>1.376611137382667</v>
+        <v>2.978472919325</v>
       </c>
       <c r="R2">
-        <v>8.259666824296</v>
+        <v>17.87083751595</v>
       </c>
       <c r="S2">
-        <v>0.002382670947446546</v>
+        <v>0.008705095928792752</v>
       </c>
       <c r="T2">
-        <v>0.001622504168774588</v>
+        <v>0.005949774414843147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6818126666666666</v>
+        <v>0.2748583333333333</v>
       </c>
       <c r="H3">
-        <v>2.045438</v>
+        <v>0.8245749999999999</v>
       </c>
       <c r="I3">
-        <v>0.5993607991797695</v>
+        <v>0.4713451636210649</v>
       </c>
       <c r="J3">
-        <v>0.5993607991797694</v>
+        <v>0.471345163621065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>95.24569547101109</v>
+        <v>38.39628448430555</v>
       </c>
       <c r="R3">
-        <v>857.2112592390998</v>
+        <v>345.5665603587499</v>
       </c>
       <c r="S3">
-        <v>0.1648534907974054</v>
+        <v>0.1122197007656006</v>
       </c>
       <c r="T3">
-        <v>0.1683880078001208</v>
+        <v>0.1150501803629958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6818126666666666</v>
+        <v>0.2748583333333333</v>
       </c>
       <c r="H4">
-        <v>2.045438</v>
+        <v>0.8245749999999999</v>
       </c>
       <c r="I4">
-        <v>0.5993607991797695</v>
+        <v>0.4713451636210649</v>
       </c>
       <c r="J4">
-        <v>0.5993607991797694</v>
+        <v>0.471345163621065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>127.0590997247464</v>
+        <v>41.26197487533333</v>
       </c>
       <c r="R4">
-        <v>1143.531897522718</v>
+        <v>371.357773878</v>
       </c>
       <c r="S4">
-        <v>0.2199168794307902</v>
+        <v>0.1205951704884444</v>
       </c>
       <c r="T4">
-        <v>0.2246319749120711</v>
+        <v>0.1236369017288878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6818126666666666</v>
+        <v>0.2748583333333333</v>
       </c>
       <c r="H5">
-        <v>2.045438</v>
+        <v>0.8245749999999999</v>
       </c>
       <c r="I5">
-        <v>0.5993607991797695</v>
+        <v>0.4713451636210649</v>
       </c>
       <c r="J5">
-        <v>0.5993607991797694</v>
+        <v>0.471345163621065</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>20.42937417954366</v>
+        <v>8.924436518408333</v>
       </c>
       <c r="R5">
-        <v>122.576245077262</v>
+        <v>53.54661911045</v>
       </c>
       <c r="S5">
-        <v>0.03535964152132409</v>
+        <v>0.02608319031511352</v>
       </c>
       <c r="T5">
-        <v>0.0240785098069067</v>
+        <v>0.0178273852079042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6818126666666666</v>
+        <v>0.2748583333333333</v>
       </c>
       <c r="H6">
-        <v>2.045438</v>
+        <v>0.8245749999999999</v>
       </c>
       <c r="I6">
-        <v>0.5993607991797695</v>
+        <v>0.4713451636210649</v>
       </c>
       <c r="J6">
-        <v>0.5993607991797694</v>
+        <v>0.471345163621065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>4.263862327994222</v>
+        <v>14.31743664095277</v>
       </c>
       <c r="R6">
-        <v>38.374760951948</v>
+        <v>128.856929768575</v>
       </c>
       <c r="S6">
-        <v>0.007379993243509225</v>
+        <v>0.04184515447672818</v>
       </c>
       <c r="T6">
-        <v>0.007538222902298583</v>
+        <v>0.04290060067011649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6818126666666666</v>
+        <v>0.2748583333333333</v>
       </c>
       <c r="H7">
-        <v>2.045438</v>
+        <v>0.8245749999999999</v>
       </c>
       <c r="I7">
-        <v>0.5993607991797695</v>
+        <v>0.4713451636210649</v>
       </c>
       <c r="J7">
-        <v>0.5993607991797694</v>
+        <v>0.471345163621065</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>97.91184390465821</v>
+        <v>55.39346060022221</v>
       </c>
       <c r="R7">
-        <v>881.206595141924</v>
+        <v>498.5411454019999</v>
       </c>
       <c r="S7">
-        <v>0.1694681232392939</v>
+        <v>0.1618968516463855</v>
       </c>
       <c r="T7">
-        <v>0.1731015795895976</v>
+        <v>0.1659803212363175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4557536666666667</v>
+        <v>0.3082776666666667</v>
       </c>
       <c r="H8">
-        <v>1.367261</v>
+        <v>0.924833</v>
       </c>
       <c r="I8">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="J8">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>0.9201876176686666</v>
+        <v>3.340617949123001</v>
       </c>
       <c r="R8">
-        <v>5.521125706012</v>
+        <v>20.043707694738</v>
       </c>
       <c r="S8">
-        <v>0.001592682380143868</v>
+        <v>0.009763526644772385</v>
       </c>
       <c r="T8">
-        <v>0.00108455336817978</v>
+        <v>0.006673192519058463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4557536666666667</v>
+        <v>0.3082776666666667</v>
       </c>
       <c r="H9">
-        <v>1.367261</v>
+        <v>0.924833</v>
       </c>
       <c r="I9">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="J9">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
-        <v>63.6664249101611</v>
+        <v>43.06479212742777</v>
       </c>
       <c r="R9">
-        <v>572.9978241914499</v>
+        <v>387.58312914685</v>
       </c>
       <c r="S9">
-        <v>0.1101953462686971</v>
+        <v>0.1258642118887339</v>
       </c>
       <c r="T9">
-        <v>0.1125579733694206</v>
+        <v>0.1290388423801965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4557536666666667</v>
+        <v>0.3082776666666667</v>
       </c>
       <c r="H10">
-        <v>1.367261</v>
+        <v>0.924833</v>
       </c>
       <c r="I10">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="J10">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>84.93190785971345</v>
+        <v>46.27891460434667</v>
       </c>
       <c r="R10">
-        <v>764.3871707374211</v>
+        <v>416.51023143912</v>
       </c>
       <c r="S10">
-        <v>0.1470021445223085</v>
+        <v>0.1352580339063633</v>
       </c>
       <c r="T10">
-        <v>0.1501539223629625</v>
+        <v>0.1386696015967407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4557536666666667</v>
+        <v>0.3082776666666667</v>
       </c>
       <c r="H11">
-        <v>1.367261</v>
+        <v>0.924833</v>
       </c>
       <c r="I11">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="J11">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>13.65589500639817</v>
+        <v>10.00953630491967</v>
       </c>
       <c r="R11">
-        <v>81.935370038389</v>
+        <v>60.057217829518</v>
       </c>
       <c r="S11">
-        <v>0.02363594439239278</v>
+        <v>0.02925457981226376</v>
       </c>
       <c r="T11">
-        <v>0.01609513825258994</v>
+        <v>0.01999497212986286</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4557536666666667</v>
+        <v>0.3082776666666667</v>
       </c>
       <c r="H12">
-        <v>1.367261</v>
+        <v>0.924833</v>
       </c>
       <c r="I12">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="J12">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>2.850153693456222</v>
+        <v>16.05825774606589</v>
       </c>
       <c r="R12">
-        <v>25.651383241106</v>
+        <v>144.524319714593</v>
       </c>
       <c r="S12">
-        <v>0.004933113075103556</v>
+        <v>0.04693300154646449</v>
       </c>
       <c r="T12">
-        <v>0.005038880759827316</v>
+        <v>0.04811677678749155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4557536666666667</v>
+        <v>0.3082776666666667</v>
       </c>
       <c r="H13">
-        <v>1.367261</v>
+        <v>0.924833</v>
       </c>
       <c r="I13">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="J13">
-        <v>0.4006392008202306</v>
+        <v>0.5286548363789351</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>65.44859614856422</v>
+        <v>62.12861213023111</v>
       </c>
       <c r="R13">
-        <v>589.0373653370781</v>
+        <v>559.1575091720799</v>
       </c>
       <c r="S13">
-        <v>0.1132799701815847</v>
+        <v>0.1815814825803373</v>
       </c>
       <c r="T13">
-        <v>0.1157087327072504</v>
+        <v>0.186161450965585</v>
       </c>
     </row>
   </sheetData>
